--- a/medicine/Psychotrope/Ganson/Ganson.xlsx
+++ b/medicine/Psychotrope/Ganson/Ganson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ganson N est un cépage français créé par l'INRA.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ganson est issu du croisement intraspécifique (métissage) entre le grenache N et le jurançon N réalisé par Paul Truel en 1958. Son nom de code est INRA-M 1509-73[1]. (INRA de Montpellier, croisement n° 1509, souche n° 73) 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ganson est issu du croisement intraspécifique (métissage) entre le grenache N et le jurançon N réalisé par Paul Truel en 1958. Son nom de code est INRA-M 1509-73. (INRA de Montpellier, croisement n° 1509, souche n° 73) 
 Il a été homologué en 1977 à la suite du travail de sélection réalisé au domaine de Vassal dans l'Hérault. Un seul clone a été homologué, le n° 534. 
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'est cultivé qu'en France, sur 30 ha en 1994[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'est cultivé qu'en France, sur 30 ha en 1994. 
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bourgeonnement moyennement velu.
 Jeune feuilles vertes à plages bronzées.
@@ -611,12 +629,87 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-C'est un cépage précoce et de rendemement régulier. Il présente un port érigé et une fertilité suffisante pour être conduite en taille courte sans palissage. (gobelet) 
-Sensibilité aux maladies
-Il présente une assez bonne résistance à la pourriture grise.
-Qualités œnologiques
-Il donne des vins fins mais peu colorés et peu typés.
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un cépage précoce et de rendemement régulier. Il présente un port érigé et une fertilité suffisante pour être conduite en taille courte sans palissage. (gobelet) 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ganson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ganson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il présente une assez bonne résistance à la pourriture grise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ganson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ganson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Qualités œnologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il donne des vins fins mais peu colorés et peu typés.
 </t>
         </is>
       </c>
